--- a/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
+++ b/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Koulu\CDIO 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ohjelmat\wamp\www\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Joonas</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Ei niin kiire</t>
+  </si>
+  <si>
+    <t>Näytteen lähetys form luotu. Toimii</t>
   </si>
 </sst>
 </file>
@@ -326,9 +329,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -340,6 +340,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
@@ -630,7 +633,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,32 +649,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -679,20 +682,20 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>100</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
         <f>DATE(2015,10,27)</f>
         <v>42304</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -700,20 +703,20 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>100</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
         <f t="shared" ref="D5:D10" si="0">DATE(2015,10,27)</f>
         <v>42304</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -721,58 +724,58 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>42304</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>100</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>42304</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>100</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>42304</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -780,195 +783,197 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>100</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>42304</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>100</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>42304</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>50</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="B12" s="9">
+        <v>100</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
         <f>DATE(2015,11,3)</f>
         <v>42311</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
         <f>DATE(2015,11,3)</f>
         <v>42311</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f>DATE(2015,11,3)</f>
         <v>42311</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f t="shared" ref="D15:D19" si="1">DATE(2015,11,3)</f>
         <v>42311</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <f t="shared" si="1"/>
         <v>42311</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f t="shared" si="1"/>
         <v>42311</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <f t="shared" si="1"/>
         <v>42311</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="B19" s="9">
+        <v>80</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11">
         <f t="shared" si="1"/>
         <v>42311</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>37</v>
       </c>
     </row>

--- a/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
+++ b/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Joonas</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Näytteen lähetys</t>
   </si>
   <si>
-    <t>Näytteen analysointi</t>
-  </si>
-  <si>
     <t>dynaaminen dropdownlist</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Sivun tuunaus</t>
   </si>
   <si>
-    <t>Ulkoasu, suomennokset</t>
-  </si>
-  <si>
     <t>popupwindow-form</t>
   </si>
   <si>
@@ -150,6 +144,27 @@
   </si>
   <si>
     <t>Näytteen lähetys form luotu. Toimii</t>
+  </si>
+  <si>
+    <t>Laajennattava gridview</t>
+  </si>
+  <si>
+    <t>labratulosten lisäys</t>
+  </si>
+  <si>
+    <t>Alan vääntämään tätä kuhan tuo dynaaminen formi synkkaa db kanssa</t>
+  </si>
+  <si>
+    <t>extension jolla saa otsikkoa klikkaamalla lisätietoa solusta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> suomennokset</t>
+  </si>
+  <si>
+    <t>Sivun stailaus</t>
+  </si>
+  <si>
+    <t>sivusta pitäs saada jonkin näköinen</t>
   </si>
 </sst>
 </file>
@@ -250,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -310,6 +325,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -321,7 +347,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5"/>
@@ -338,8 +364,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,16 +678,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -672,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>6</v>
@@ -829,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>23</v>
@@ -850,12 +879,12 @@
         <v>42311</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -867,11 +896,13 @@
         <f>DATE(2015,11,3)</f>
         <v>42311</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -884,12 +915,12 @@
         <v>42311</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -898,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" ref="D15:D19" si="1">DATE(2015,11,3)</f>
+        <f t="shared" ref="D15:D20" si="1">DATE(2015,11,3)</f>
         <v>42311</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="9">
         <v>0</v>
@@ -920,35 +951,35 @@
         <v>42311</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="9">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="1"/>
         <v>42311</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="9">
         <v>0</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="11">
@@ -956,12 +987,12 @@
         <v>42311</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="9">
         <v>80</v>
@@ -974,7 +1005,42 @@
         <v>42311</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="16">
+        <v>80</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="1"/>
+        <v>42311</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
+++ b/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ohjelmat\wamp\www\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roskaa\cdio\asd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -374,14 +374,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
-    <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
-    <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40 % - Aksentti2" xfId="6" builtinId="35"/>
+    <cellStyle name="60 % - Aksentti1" xfId="5" builtinId="32"/>
+    <cellStyle name="60 % - Aksentti6" xfId="7" builtinId="52"/>
+    <cellStyle name="Huono" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutraali" xfId="3" builtinId="28"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Otsikko 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Tarkistussolu" xfId="4" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -662,7 +662,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>1</v>

--- a/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
+++ b/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Joonas</t>
   </si>
@@ -662,7 +662,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,9 +982,8 @@
       <c r="C18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="11">
-        <f t="shared" si="1"/>
-        <v>42311</v>
+      <c r="D18" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>44</v>

--- a/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
+++ b/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Joonas</t>
   </si>
@@ -101,12 +101,6 @@
     <t>Näytteen lähetys</t>
   </si>
   <si>
-    <t>dynaaminen dropdownlist</t>
-  </si>
-  <si>
-    <t>Tällä valitaan tuotteet firman mukaan</t>
-  </si>
-  <si>
     <t>rbac</t>
   </si>
   <si>
@@ -122,18 +116,12 @@
     <t>dynaaminen form</t>
   </si>
   <si>
-    <t>Tällä kasvatetaan/kutistetaan formia kun valitaan lisää analysoitavia kohteita</t>
-  </si>
-  <si>
     <t>Sivun tuunaus</t>
   </si>
   <si>
     <t>popupwindow-form</t>
   </si>
   <si>
-    <t>tekee kaikista formeista popup-ikkunoita</t>
-  </si>
-  <si>
     <t>CDIO3 | Päivittäkää listaa sitä mukaa kun teette, niin pysytään kärryillä. Näin ei aina tarvitse käydä tunneilla ja muut näkevät missä mennään !!!!!</t>
   </si>
   <si>
@@ -165,6 +153,24 @@
   </si>
   <si>
     <t>sivusta pitäs saada jonkin näköinen</t>
+  </si>
+  <si>
+    <t>Tällä kasvatetaan/kutistetaan formia kun valitaan lisää analysoitavia kohteita.Toimii. Pitää kattoa vielä miten palautetaan arvot tähän</t>
+  </si>
+  <si>
+    <t>Tuotteet firman mukaan</t>
+  </si>
+  <si>
+    <t>esim. Keskon käyttäjä näkee vain keskon tuotteet</t>
+  </si>
+  <si>
+    <t>tekee formeista modal popup-ikkunoita</t>
+  </si>
+  <si>
+    <t>Nos.index Uudet napit</t>
+  </si>
+  <si>
+    <t>Lisätty "lähetä näyte" ja merkitse tulokset"-napit</t>
   </si>
 </sst>
 </file>
@@ -224,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +268,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -337,7 +348,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -346,6 +357,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -362,7 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="5" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -372,11 +383,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
     <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
+    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -659,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,16 +693,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -701,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>6</v>
@@ -714,7 +729,7 @@
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="17">
         <v>100</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -735,7 +750,7 @@
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="17">
         <v>100</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -756,7 +771,7 @@
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="17">
         <v>100</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -775,7 +790,7 @@
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="17">
         <v>100</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -794,7 +809,7 @@
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="17">
         <v>100</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -815,7 +830,7 @@
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="17">
         <v>100</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -833,7 +848,7 @@
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="17">
         <v>100</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -858,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>23</v>
@@ -868,7 +883,7 @@
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="17">
         <v>100</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -879,12 +894,12 @@
         <v>42311</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -893,57 +908,57 @@
         <v>0</v>
       </c>
       <c r="D13" s="11">
-        <f>DATE(2015,11,3)</f>
-        <v>42311</v>
+        <f>DATE(2015,11,10)</f>
+        <v>42318</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="11">
-        <f>DATE(2015,11,3)</f>
-        <v>42311</v>
+        <f>DATE(2015,11,10)</f>
+        <v>42318</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" ref="D15:D20" si="1">DATE(2015,11,3)</f>
+        <f t="shared" ref="D15:D22" si="1">DATE(2015,11,3)</f>
         <v>42311</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="9">
         <v>0</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="11">
@@ -951,15 +966,15 @@
         <v>42311</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="9">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>0</v>
@@ -969,29 +984,29 @@
         <v>42311</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="9">
         <v>0</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" s="9">
         <v>80</v>
@@ -1004,14 +1019,14 @@
         <v>42311</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="16">
+      <c r="A20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="15">
         <v>80</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -1021,25 +1036,43 @@
         <f t="shared" si="1"/>
         <v>42311</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>43</v>
+      <c r="E20" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="16">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="17">
+        <v>100</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
+        <v>42311</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
+++ b/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>Joonas</t>
   </si>
@@ -56,69 +56,33 @@
     <t>Tekijä</t>
   </si>
   <si>
-    <t>kanta, relaatiot, normalisointi</t>
-  </si>
-  <si>
     <t>Ryhmä</t>
   </si>
   <si>
     <t>yii2 advanced template</t>
   </si>
   <si>
-    <t>Asennettu yii2 advanced ja jaettu github</t>
-  </si>
-  <si>
     <t>NOS-crud + model</t>
   </si>
   <si>
     <t>Tuote crud + model</t>
   </si>
   <si>
-    <t>signup-  suomennos</t>
-  </si>
-  <si>
-    <t>Rekisteröinti-form</t>
-  </si>
-  <si>
     <t>Datepicker - widget</t>
   </si>
   <si>
-    <t>Tällä voi kalenterista valita pvm:n</t>
-  </si>
-  <si>
-    <t>Dropdownlistasta voi kirjoittamalla etsiä</t>
-  </si>
-  <si>
     <t>Select search - widget</t>
   </si>
   <si>
-    <t>crud-search</t>
-  </si>
-  <si>
-    <t>Search funktiot db-tiedoille</t>
-  </si>
-  <si>
     <t>Näytteen lähetys</t>
   </si>
   <si>
-    <t>rbac</t>
-  </si>
-  <si>
     <t>roolijaot sivulle. Tarvitaan ainakin Luo, poista ja admin oikeudet. Huom! Esim. Labrahenkilö ei voi luoda nos:ia</t>
   </si>
   <si>
-    <t>Henkilö-crud</t>
-  </si>
-  <si>
-    <t>samanlainen crud kuin muutkin</t>
-  </si>
-  <si>
     <t>dynaaminen form</t>
   </si>
   <si>
-    <t>Sivun tuunaus</t>
-  </si>
-  <si>
     <t>popupwindow-form</t>
   </si>
   <si>
@@ -131,39 +95,21 @@
     <t>Ei niin kiire</t>
   </si>
   <si>
-    <t>Näytteen lähetys form luotu. Toimii</t>
-  </si>
-  <si>
     <t>Laajennattava gridview</t>
   </si>
   <si>
     <t>labratulosten lisäys</t>
   </si>
   <si>
-    <t>Alan vääntämään tätä kuhan tuo dynaaminen formi synkkaa db kanssa</t>
-  </si>
-  <si>
     <t>extension jolla saa otsikkoa klikkaamalla lisätietoa solusta</t>
   </si>
   <si>
-    <t xml:space="preserve"> suomennokset</t>
-  </si>
-  <si>
     <t>Sivun stailaus</t>
   </si>
   <si>
-    <t>sivusta pitäs saada jonkin näköinen</t>
-  </si>
-  <si>
     <t>Tällä kasvatetaan/kutistetaan formia kun valitaan lisää analysoitavia kohteita.Toimii. Pitää kattoa vielä miten palautetaan arvot tähän</t>
   </si>
   <si>
-    <t>Tuotteet firman mukaan</t>
-  </si>
-  <si>
-    <t>esim. Keskon käyttäjä näkee vain keskon tuotteet</t>
-  </si>
-  <si>
     <t>tekee formeista modal popup-ikkunoita</t>
   </si>
   <si>
@@ -171,13 +117,164 @@
   </si>
   <si>
     <t>Lisätty "lähetä näyte" ja merkitse tulokset"-napit</t>
+  </si>
+  <si>
+    <t>esim. Keskon käyttäjä näkee vain keskon suunnitelmat</t>
+  </si>
+  <si>
+    <t>rbac (oikeus-hierarkia)</t>
+  </si>
+  <si>
+    <t>crud luotu. _form kuntoon ja searchkentät toimimaan.</t>
+  </si>
+  <si>
+    <t>Labratulosten katselu</t>
+  </si>
+  <si>
+    <t>Henkilö-crud + model</t>
+  </si>
+  <si>
+    <t>signup form</t>
+  </si>
+  <si>
+    <t>Yrityskenttä pitää vielä muuttaa</t>
+  </si>
+  <si>
+    <t>Dropdownlistasta voi kirjoittamalla etsiä!</t>
+  </si>
+  <si>
+    <t>Kalenteri jolla voi valita pvm:n</t>
+  </si>
+  <si>
+    <t>taulukko johon syötetään tulokset (sidottu NOS_id</t>
+  </si>
+  <si>
+    <t>NOS-update form</t>
+  </si>
+  <si>
+    <t>Alert-systeemi</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tämän voi aloittaa kun 'labratulosten lisäys' on tehty</t>
+  </si>
+  <si>
+    <t>luodun NOS-suunnitelman tietoja pitää voida muokata. Luo samanlainen näkymä kuin ennen "luo"-napin painamista</t>
+  </si>
+  <si>
+    <t>tulee tulosten yhteydessä</t>
+  </si>
+  <si>
+    <t>Nos Grid raportin importaus</t>
+  </si>
+  <si>
+    <t>kanta, relaatiot, normalisointi,muutostyöt</t>
+  </si>
+  <si>
+    <t>Asennettu yii2 advanced ja jaettu github. Kerrottu tiimille pääasiat</t>
+  </si>
+  <si>
+    <t>Asennettu jo grid-extension. Pitää koodata siitä sivuille raportit excel, pdf yms.</t>
+  </si>
+  <si>
+    <t>frontend/index ja backend/index etusivulle firman logo ja tarpeelliset linkit. Myös osa virheilmoituksista täytyy suomentaa</t>
+  </si>
+  <si>
+    <t>NOS Värikoodaus</t>
+  </si>
+  <si>
+    <t>Jos päivämäärä mennyt umpeen, eikä tuotetta lähetty = punainen solu jne</t>
+  </si>
+  <si>
+    <t>Ryhmäsähköpostin lähetys</t>
+  </si>
+  <si>
+    <t>spostin lähetys usealle kerralla. Tulee käyttöön myös Alert-systeemiin</t>
+  </si>
+  <si>
+    <t>Ajax validation form</t>
+  </si>
+  <si>
+    <t>modaalisten formien uudelleenohjaus (nykyinen ruma) pois ja luodusta tiedosta alert box. Esim "Luotu n kpl suunnitelmia"</t>
+  </si>
+  <si>
+    <t>Laboratoriot sidottava yrityksiin</t>
+  </si>
+  <si>
+    <t>Laboratoriota ei tarvitse valita</t>
+  </si>
+  <si>
+    <t>Lajittelu firman mukaan</t>
+  </si>
+  <si>
+    <t>Lennosta muokkaus</t>
+  </si>
+  <si>
+    <t>Suunnitelman tietoja (esim näytteenottopvm) pitää voida muokata  nos/index.php näkymässä kun klikkaa haluttua kenttää</t>
+  </si>
+  <si>
+    <t>Tuote &amp; nos crud-search</t>
+  </si>
+  <si>
+    <t>Search funktiot db-tiedoille nos/index.php. Esim hae kaikki perunat</t>
+  </si>
+  <si>
+    <t>nos/_form.php usean päivän valinta</t>
+  </si>
+  <si>
+    <t>Suunnitelmaa luodessa käyttäjä voi valita n kpl päivämääriä. Näistä täytyy loopissa luoda kaikista oma suunnitelma. Tällä hetkellä suunnitelma tekee vain yhdestä päivästä suunnitelmat</t>
+  </si>
+  <si>
+    <t>Bakteeri-tiedot</t>
+  </si>
+  <si>
+    <t>Bakteereista,hiivoista ym.  pitää pystyä näkemään lisätietoja</t>
+  </si>
+  <si>
+    <t>NOS = näytteenottosuunnitelma</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tämän taulukon töiden edistymistä käydään läpi viikottain opettajien kanssa. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valitkaa ekalle viikolle työ! Oma nimi homman kohdalle ja päivitys gittiin. Näin kaikilla on ainakin selvillä oma homma.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tehty. Tähän ei valita labraa vaan se tulee firman mukaan. Kaipaa hienosäätöä</t>
+  </si>
+  <si>
+    <t>Asennus codez-palvelimelle</t>
+  </si>
+  <si>
+    <t>Katotaan tätä joulukuussa</t>
+  </si>
+  <si>
+    <t>Omia ideoita voi tähän lisätä</t>
+  </si>
+  <si>
+    <t>Asennettu ja toimii</t>
+  </si>
+  <si>
+    <t>Asennettu. Kaipaa hienosäätöä kannan uusimisen takia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +326,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +386,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -338,17 +461,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -358,14 +485,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -375,28 +503,40 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="5" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="10"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
     <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
     <cellStyle name="Accent6" xfId="8" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,27 +814,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="183" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -704,375 +844,563 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B10" s="12">
         <v>100</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
         <f>DATE(2015,10,27)</f>
         <v>42304</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" ref="D11:D16" si="0">DATE(2015,10,27)</f>
+        <v>42304</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B12" s="12">
         <v>100</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <f t="shared" ref="D5:D10" si="0">DATE(2015,10,27)</f>
-        <v>42304</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17">
-        <v>100</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>42304</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="G6" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="17">
-        <v>100</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13">
+        <v>90</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <f>DATE(2015,11,25)</f>
+        <v>42333</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="13">
+        <v>90</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>42304</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="G7" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12">
         <v>100</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>42304</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12">
         <v>100</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>42304</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="18">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13">
+        <v>90</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <f>DATE(2015,11,11)</f>
+        <v>42319</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <f>DATE(2015,12,2)</f>
+        <v>42340</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="18">
+        <v>50</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <f>DATE(2015,11,18)</f>
+        <v>42326</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="13">
+        <v>90</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <f>DATE(2015,11,18)</f>
+        <v>42326</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="17">
-        <v>100</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="0"/>
-        <v>42304</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="9">
-        <v>50</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="17">
-        <v>100</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <f>DATE(2015,11,3)</f>
-        <v>42311</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="B25" s="13">
+        <v>90</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
         <f>DATE(2015,11,10)</f>
         <v>42318</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="E25" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13">
+        <v>90</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
         <f>DATE(2015,11,10)</f>
         <v>42318</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E26" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="12">
+        <v>100</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28" si="1">DATE(2015,11,3)</f>
+        <v>42311</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="20">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10">
+        <f>DATE(2015,11,11)</f>
+        <v>42319</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="20">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="10">
+        <f>DATE(2015,11,11)</f>
+        <v>42319</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11">
-        <f t="shared" ref="D15:D22" si="1">DATE(2015,11,3)</f>
-        <v>42311</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
-        <f t="shared" si="1"/>
-        <v>42311</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="9">
-        <v>90</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <f t="shared" si="1"/>
-        <v>42311</v>
-      </c>
-      <c r="E17" s="8" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="20">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="9">
-        <v>80</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" si="1"/>
-        <v>42311</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="15">
-        <v>80</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" si="1"/>
-        <v>42311</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="15">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="E31" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="17">
-        <v>100</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11">
-        <f t="shared" si="1"/>
-        <v>42311</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>48</v>
+      <c r="B32" s="20">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="20">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="20">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="20">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="20">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="20">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="20">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="20">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1080,5 +1408,6 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
+++ b/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ohjelmat\wamp\www\github\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>Joonas</t>
   </si>
@@ -343,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -475,7 +476,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -487,8 +488,9 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5"/>
@@ -513,9 +515,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,19 +523,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="11" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
-    <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
-    <cellStyle name="60% - Accent6" xfId="7" builtinId="52"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
+  <cellStyles count="12">
+    <cellStyle name="40 % - Aksentti2" xfId="6" builtinId="35"/>
+    <cellStyle name="60 % - Aksentti1" xfId="5" builtinId="32"/>
+    <cellStyle name="60 % - Aksentti3" xfId="11" builtinId="40"/>
+    <cellStyle name="60 % - Aksentti6" xfId="7" builtinId="52"/>
+    <cellStyle name="Aksentti4" xfId="10" builtinId="41"/>
+    <cellStyle name="Aksentti6" xfId="8" builtinId="49"/>
+    <cellStyle name="Huomautus" xfId="9" builtinId="10"/>
+    <cellStyle name="Huono" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutraali" xfId="3" builtinId="28"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Otsikko 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Tarkistussolu" xfId="4" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -806,7 +810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -816,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,16 +837,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -851,7 +855,7 @@
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1028,7 +1032,7 @@
       <c r="A17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>50</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1113,7 +1117,7 @@
       <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>50</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -1179,7 +1183,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="13">
@@ -1192,12 +1196,12 @@
         <f>DATE(2015,11,10)</f>
         <v>42318</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="8">
@@ -1207,12 +1211,12 @@
       <c r="D27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="12">
@@ -1225,15 +1229,15 @@
         <f t="shared" ref="D28" si="1">DATE(2015,11,3)</f>
         <v>42311</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>0</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -1243,15 +1247,15 @@
         <f>DATE(2015,11,11)</f>
         <v>42319</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>0</v>
       </c>
       <c r="C30" s="7"/>
@@ -1264,10 +1268,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>0</v>
       </c>
       <c r="C31" s="7"/>
@@ -1279,10 +1283,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>0</v>
       </c>
       <c r="C32" s="7"/>
@@ -1294,13 +1298,15 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="20">
-        <v>0</v>
-      </c>
-      <c r="C33" s="7"/>
+      <c r="B33" s="19">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D33" s="15" t="s">
         <v>43</v>
       </c>
@@ -1309,10 +1315,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="19">
         <v>0</v>
       </c>
       <c r="C34" s="7"/>
@@ -1324,13 +1330,15 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="20">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7"/>
+      <c r="B35" s="19">
+        <v>0</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D35" s="15" t="s">
         <v>43</v>
       </c>
@@ -1339,10 +1347,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>0</v>
       </c>
       <c r="C36" s="7"/>
@@ -1354,10 +1362,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>0</v>
       </c>
       <c r="C37" s="7"/>
@@ -1369,10 +1377,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>0</v>
       </c>
       <c r="C38" s="7"/>
@@ -1384,10 +1392,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>0</v>
       </c>
       <c r="C39" s="7"/>

--- a/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
+++ b/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMK_tiedostot\projekti 3\biosafe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>Joonas</t>
   </si>
@@ -269,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +342,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -395,8 +406,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -476,7 +487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -488,9 +499,8 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5"/>
@@ -526,12 +536,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="11" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="11">
     <cellStyle name="40 % - Aksentti2" xfId="6" builtinId="35"/>
     <cellStyle name="60 % - Aksentti1" xfId="5" builtinId="32"/>
-    <cellStyle name="60 % - Aksentti3" xfId="11" builtinId="40"/>
     <cellStyle name="60 % - Aksentti6" xfId="7" builtinId="52"/>
     <cellStyle name="Aksentti4" xfId="10" builtinId="41"/>
     <cellStyle name="Aksentti6" xfId="8" builtinId="49"/>
@@ -810,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -820,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,10 +1218,12 @@
       <c r="A27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="7"/>
+      <c r="B27" s="22">
+        <v>20</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="D27" s="7" t="s">
         <v>22</v>
       </c>
@@ -1301,14 +1317,14 @@
       <c r="A33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="19">
-        <v>0</v>
-      </c>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="17">
+        <v>50</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>43</v>
+      <c r="D33" s="21">
+        <v>42326</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>53</v>
@@ -1336,11 +1352,11 @@
       <c r="B35" s="19">
         <v>0</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>43</v>
+      <c r="D35" s="21">
+        <v>42333</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>59</v>

--- a/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
+++ b/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
@@ -533,13 +533,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,16 +851,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1218,7 +1218,7 @@
       <c r="A27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>20</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -1317,13 +1317,13 @@
       <c r="A33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="17">
-        <v>50</v>
+      <c r="B33" s="12">
+        <v>100</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>42326</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -1355,7 +1355,7 @@
       <c r="C35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="20">
         <v>42333</v>
       </c>
       <c r="E35" s="7" t="s">

--- a/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
+++ b/CDIO3 työlista PÄIVITÄ TÄMÄ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>Joonas</t>
   </si>
@@ -269,12 +269,15 @@
   <si>
     <t>Asennettu. Kaipaa hienosäätöä kannan uusimisen takia</t>
   </si>
+  <si>
+    <t>muok. tarp. muk.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,14 +345,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,12 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,7 +491,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5"/>
@@ -535,9 +526,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,7 +823,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +831,7 @@
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="183" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
@@ -851,16 +839,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1218,14 +1206,14 @@
       <c r="A27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="21">
-        <v>20</v>
+      <c r="B27" s="13">
+        <v>90</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>51</v>
@@ -1337,9 +1325,11 @@
       <c r="B34" s="19">
         <v>0</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="15" t="s">
-        <v>43</v>
+      <c r="C34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="20">
+        <v>42340</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>57</v>
@@ -1356,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="20">
-        <v>42333</v>
+        <v>42340</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>59</v>
